--- a/UnitTests/Tests/Calendars.xlsx
+++ b/UnitTests/Tests/Calendars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Function</t>
   </si>
@@ -498,16 +498,16 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D3" s="4" t="e">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E3" t="e">
-        <f ca="1">_xll.qlCalendarName("target")</f>
-        <v>#NAME?</v>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xll.qlCalendarName("target")</f>
+        <v>TARGET</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,16 +517,16 @@
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" s="4" t="e">
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="str">
         <f t="shared" ref="D4:D13" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" t="e">
-        <f ca="1">_xll.qlCalendarIsBusinessDay("target",25569)</f>
-        <v>#NAME?</v>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="b">
+        <f>_xll.qlCalendarIsBusinessDay("target",25569)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -536,16 +536,16 @@
       <c r="B5" t="b">
         <v>1</v>
       </c>
-      <c r="C5" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" t="e">
-        <f ca="1">_xll.qlCalendarIsHoliday("target",25569)</f>
-        <v>#NAME?</v>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" t="b">
+        <f>_xll.qlCalendarIsHoliday("target",25569)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -555,16 +555,16 @@
       <c r="B6" t="b">
         <v>0</v>
       </c>
-      <c r="C6" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" t="e">
-        <f ca="1">_xll.qlCalendarIsEndOfMonth("target",25569)</f>
-        <v>#NAME?</v>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" t="b">
+        <f>_xll.qlCalendarIsEndOfMonth("target",25569)</f>
+        <v>0</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -575,16 +575,16 @@
       <c r="B7">
         <v>25598</v>
       </c>
-      <c r="C7" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" t="e">
-        <f ca="1">_xll.qlCalendarEndOfMonth("target",25569)</f>
-        <v>#NAME?</v>
+      <c r="C7">
+        <v>25598</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <f>_xll.qlCalendarEndOfMonth("target",25569)</f>
+        <v>25598</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,16 +594,16 @@
       <c r="B8" t="b">
         <v>1</v>
       </c>
-      <c r="C8" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" t="e">
-        <f ca="1">_xll.qlCalendarAddHoliday("london",25569)</f>
-        <v>#NAME?</v>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="b">
+        <f>_xll.qlCalendarAddHoliday("london",25569)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,16 +613,16 @@
       <c r="B9" t="b">
         <v>1</v>
       </c>
-      <c r="C9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D9" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E9" t="e">
-        <f ca="1">_xll.qlCalendarRemoveHoliday("japan",25569)</f>
-        <v>#NAME?</v>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" t="b">
+        <f>_xll.qlCalendarRemoveHoliday("japan",25569)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,16 +632,16 @@
       <c r="B10">
         <v>42005</v>
       </c>
-      <c r="C10" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" t="e">
-        <f ca="1">_xll.qlCalendarHolidayList("target",42005,42369)</f>
-        <v>#NAME?</v>
+      <c r="C10">
+        <v>42005</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <f>_xll.qlCalendarHolidayList("target",42005,42369)</f>
+        <v>42005</v>
       </c>
       <c r="G10" s="5">
         <v>42005</v>
@@ -654,16 +654,16 @@
       <c r="B11">
         <v>25570</v>
       </c>
-      <c r="C11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" t="e">
-        <f ca="1">_xll.qlCalendarAdjust("target",25569)</f>
-        <v>#NAME?</v>
+      <c r="C11">
+        <v>25570</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11">
+        <f>_xll.qlCalendarAdjust("target",25569)</f>
+        <v>25570</v>
       </c>
       <c r="G11" s="5">
         <v>42369</v>
@@ -676,16 +676,16 @@
       <c r="B12">
         <v>25570</v>
       </c>
-      <c r="C12" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" t="e">
-        <f ca="1">_xll.qlCalendarAdvance("target",25569,"1d")</f>
-        <v>#NAME?</v>
+      <c r="C12">
+        <v>25570</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <f>_xll.qlCalendarAdvance("target",25569,"1d")</f>
+        <v>25570</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,16 +695,16 @@
       <c r="B13">
         <v>255</v>
       </c>
-      <c r="C13" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E13" t="e">
-        <f ca="1">_xll.qlCalendarBusinessDaysBetween("target",42005,42369)</f>
-        <v>#NAME?</v>
+      <c r="C13">
+        <v>255</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <f>_xll.qlCalendarBusinessDaysBetween("target",42005,42369)</f>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/Tests/Calendars.xlsx
+++ b/UnitTests/Tests/Calendars.xlsx
@@ -449,7 +449,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/UnitTests/Tests/Calendars.xlsx
+++ b/UnitTests/Tests/Calendars.xlsx
@@ -504,7 +504,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="str">
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f t="shared" ref="D4:D13" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" ref="D4:D13" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="b">

--- a/UnitTests/Tests/Calendars.xlsx
+++ b/UnitTests/Tests/Calendars.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -84,9 +89,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -131,7 +136,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -143,10 +148,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -155,12 +160,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +243,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,7 +487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -453,7 +495,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -507,9 +549,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
-      <c r="E3" t="str">
-        <f>_xll.qlCalendarName("target")</f>
-        <v>TARGET</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlCalendarName("target")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -526,9 +568,9 @@
         <f t="shared" ref="D4:D13" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
-      <c r="E4" t="b">
-        <f>_xll.qlCalendarIsBusinessDay("target",25569)</f>
-        <v>0</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlCalendarIsBusinessDay("target",25569)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -545,9 +587,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E5" t="b">
-        <f>_xll.qlCalendarIsHoliday("target",25569)</f>
-        <v>1</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlCalendarIsHoliday("target",25569)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,9 +606,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6" t="b">
-        <f>_xll.qlCalendarIsEndOfMonth("target",25569)</f>
-        <v>0</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlCalendarIsEndOfMonth("target",25569)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -584,9 +626,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E7">
-        <f>_xll.qlCalendarEndOfMonth("target",25569)</f>
-        <v>25598</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlCalendarEndOfMonth("target",25569)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,9 +645,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E8" t="b">
-        <f>_xll.qlCalendarAddHoliday("london",25569)</f>
-        <v>1</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlCalendarAddHoliday("london",25569)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -622,9 +664,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E9" t="b">
-        <f>_xll.qlCalendarRemoveHoliday("japan",25569)</f>
-        <v>1</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlCalendarRemoveHoliday("japan",25569)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,9 +683,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E10">
-        <f>_xll.qlCalendarHolidayList("target",42005,42369)</f>
-        <v>42005</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlCalendarHolidayList("target",42005,42369)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G10" s="5">
         <v>42005</v>
@@ -663,9 +705,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E11">
-        <f>_xll.qlCalendarAdjust("target",25569)</f>
-        <v>25570</v>
+      <c r="E11" t="e">
+        <f ca="1">_xll.qlCalendarAdjust("target",25569)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G11" s="5">
         <v>42369</v>
@@ -685,9 +727,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E12">
-        <f>_xll.qlCalendarAdvance("target",25569,"1d")</f>
-        <v>25570</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlCalendarAdvance("target",25569,"1d")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -704,9 +746,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E13">
-        <f>_xll.qlCalendarBusinessDaysBetween("target",42005,42369)</f>
-        <v>255</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlCalendarBusinessDaysBetween("target",42005,42369)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -716,26 +758,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
